--- a/result.xlsx
+++ b/result.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://cheney.house.gov</t>
+          <t>https://aguilar.house.gov/</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://westerman.house.gov/</t>
+          <t>https://jacksonlee.house.gov/</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://meng.house.gov</t>
+          <t>https://mchenry.house.gov</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://harshbarger.house.gov</t>
+          <t>https://calvert.house.gov/</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://schrader.house.gov/</t>
+          <t>https://hudson.house.gov</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://mann.house.gov</t>
+          <t>https://cheney.house.gov</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://reed.house.gov/</t>
+          <t>https://greene.house.gov</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://ferguson.house.gov</t>
+          <t>https://napolitano.house.gov/</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://banks.house.gov</t>
+          <t>https://kind.house.gov/</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://grijalva.house.gov/</t>
+          <t>https://carter.house.gov/</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://craig.house.gov</t>
+          <t>https://hice.house.gov/</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://suozzi.house.gov</t>
+          <t>https://miller.house.gov/</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://evans.house.gov/</t>
+          <t>https://mccaul.house.gov</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://rice.house.gov</t>
+          <t>https://vandrew.house.gov</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://sannicolas.house.gov</t>
+          <t>https://sires.house.gov</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://turner.house.gov/</t>
+          <t>https://long.house.gov/</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://gwenmoore.house.gov</t>
+          <t>https://huffman.house.gov</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://dustyjohnson.house.gov/</t>
+          <t>https://morelle.house.gov</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://wagner.house.gov</t>
+          <t>https://torres.house.gov/</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://crenshaw.house.gov/</t>
+          <t>https://espaillat.house.gov</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://buddycarter.house.gov/</t>
+          <t>https://chuygarcia.house.gov/</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://aguilar.house.gov/</t>
+          <t>https://kinzinger.house.gov/</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://graves.house.gov/</t>
+          <t>https://adams.house.gov</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://mikethompson.house.gov/</t>
+          <t>https://delgado.house.gov</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://nikemawilliams.house.gov</t>
+          <t>https://horsford.house.gov</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://langevin.house.gov</t>
+          <t>https://sarajacobs.house.gov</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://underwood.house.gov/</t>
+          <t>https://stansbury.house.gov/</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://bourdeaux.house.gov</t>
+          <t>https://hagedorn.house.gov/</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://luria.house.gov</t>
+          <t>https://demings.house.gov</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://sherrill.house.gov/</t>
+          <t>https://beatty.house.gov</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://carl.house.gov</t>
+          <t>https://kirkpatrick.house.gov/</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://porter.house.gov/</t>
+          <t>https://bera.house.gov</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://huffman.house.gov</t>
+          <t>https://bowman.house.gov</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://zeldin.house.gov/</t>
+          <t>https://doyle.house.gov</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://kathleenrice.house.gov</t>
+          <t>https://ebjohnson.house.gov</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://burchett.house.gov</t>
+          <t>https://speier.house.gov/</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://weber.house.gov</t>
+          <t>https://sewell.house.gov/</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://pappas.house.gov</t>
+          <t>https://jayapal.house.gov</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://davidscott.house.gov/</t>
+          <t>https://porter.house.gov/</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://womack.house.gov/</t>
+          <t>https://mace.house.gov</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://delbene.house.gov</t>
+          <t>https://feenstra.house.gov</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://steel.house.gov</t>
+          <t>https://mcclintock.house.gov/</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://hinson.house.gov</t>
+          <t>https://debbiedingell.house.gov/</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://adamsmith.house.gov/</t>
+          <t>https://andylevin.house.gov/</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://casten.house.gov</t>
+          <t>https://timmons.house.gov/</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://pallone.house.gov</t>
+          <t>https://buck.house.gov/</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://rosendale.house.gov</t>
+          <t>https://kim.house.gov/</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://davids.house.gov/</t>
+          <t>https://burchett.house.gov</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://demings.house.gov</t>
+          <t>https://vela.house.gov</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://kevinmccarthy.house.gov/</t>
+          <t>https://trentkelly.house.gov/</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://gaetz.house.gov</t>
+          <t>https://maloney.house.gov/</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://mcmorris.house.gov/</t>
+          <t>https://gwenmoore.house.gov</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://franklin.house.gov</t>
+          <t>https://gooden.house.gov</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://bobbyscott.house.gov</t>
+          <t>https://ritchietorres.house.gov</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://moulton.house.gov/</t>
+          <t>https://lucas.house.gov</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://reschenthaler.house.gov/</t>
+          <t>https://cloud.house.gov</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://donalds.house.gov</t>
+          <t>https://harder.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://ruiz.house.gov</t>
+          <t>https://omar.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://davidson.house.gov/</t>
+          <t>https://anthonygonzalez.house.gov</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://bush.house.gov</t>
+          <t>https://herrell.house.gov</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://morgangriffith.house.gov/</t>
+          <t>https://waltz.house.gov</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://delgado.house.gov</t>
+          <t>https://nikemawilliams.house.gov</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://foxx.house.gov/</t>
+          <t>https://mcmorris.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://gibbs.house.gov/</t>
+          <t>https://himes.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://joyce.house.gov</t>
+          <t>https://yarmuth.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://schakowsky.house.gov</t>
+          <t>https://gosar.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://stefanik.house.gov/</t>
+          <t>https://gonzales.house.gov</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://degette.house.gov</t>
+          <t>https://fortenberry.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://frankel.house.gov</t>
+          <t>https://blumenauer.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://lawrence.house.gov/</t>
+          <t>https://plaskett.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://thompson.house.gov</t>
+          <t>https://cohen.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://yarmuth.house.gov/</t>
+          <t>https://butterfield.house.gov</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://andylevin.house.gov/</t>
+          <t>https://rodneydavis.house.gov</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://gonzalez-colon.house.gov</t>
+          <t>https://larsen.house.gov</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://mcclintock.house.gov/</t>
+          <t>https://watsoncoleman.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://issa.house.gov</t>
+          <t>https://bonamici.house.gov</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://quigley.house.gov/</t>
+          <t>https://baird.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://himes.house.gov/</t>
+          <t>https://bilirakis.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://mccaul.house.gov</t>
+          <t>https://lindasanchez.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://buck.house.gov/</t>
+          <t>https://steil.house.gov</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://baird.house.gov/</t>
+          <t>https://sherrill.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://butterfield.house.gov</t>
+          <t>https://latta.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://gregmurphy.house.gov</t>
+          <t>https://benniethompson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://upton.house.gov</t>
+          <t>https://davidson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://lowenthal.house.gov</t>
+          <t>https://larson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://gooden.house.gov</t>
+          <t>https://takano.house.gov</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://lesko.house.gov</t>
+          <t>https://cole.house.gov</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://waltz.house.gov</t>
+          <t>https://boyle.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://fulcher.house.gov/</t>
+          <t>https://radewagen.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://watsoncoleman.house.gov/</t>
+          <t>https://connolly.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://bowman.house.gov</t>
+          <t>https://moolenaar.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://rouzer.house.gov/</t>
+          <t>https://hinson.house.gov</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://cohen.house.gov/</t>
+          <t>https://lofgren.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://vela.house.gov</t>
+          <t>https://balderson.house.gov</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://long.house.gov/</t>
+          <t>https://algreen.house.gov</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://scalise.house.gov/</t>
+          <t>https://keating.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://simpson.house.gov</t>
+          <t>https://jeffries.house.gov</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://bass.house.gov/</t>
+          <t>https://grothman.house.gov</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://neguse.house.gov/</t>
+          <t>https://correa.house.gov</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://jacksonlee.house.gov/</t>
+          <t>https://soto.house.gov</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://bacon.house.gov</t>
+          <t>https://harris.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://crist.house.gov</t>
+          <t>https://lahood.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://strickland.house.gov</t>
+          <t>https://vanduyne.house.gov</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://sherman.house.gov</t>
+          <t>https://banks.house.gov</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://dean.house.gov</t>
+          <t>https://brooks.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://mcbath.house.gov</t>
+          <t>https://webster.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://jones.house.gov</t>
+          <t>https://wexton.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://jordan.house.gov/</t>
+          <t>https://lamalfa.house.gov</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://pocan.house.gov</t>
+          <t>https://auchincloss.house.gov</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://perlmutter.house.gov/</t>
+          <t>https://bourdeaux.house.gov</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://cammack.house.gov</t>
+          <t>https://lesko.house.gov</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://carson.house.gov/</t>
+          <t>https://guest.house.gov</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://carbajal.house.gov</t>
+          <t>https://sablan.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://spanberger.house.gov</t>
+          <t>https://jacobs.house.gov</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://roy.house.gov</t>
+          <t>https://pence.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://barr.house.gov/</t>
+          <t>https://ruppersberger.house.gov</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://bilirakis.house.gov/</t>
+          <t>https://lowenthal.house.gov</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://swalwell.house.gov</t>
+          <t>https://bost.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://gomez.house.gov/</t>
+          <t>https://turner.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://fallon.house.gov</t>
+          <t>https://fleischmann.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://barrymoore.house.gov</t>
+          <t>https://foxx.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://veasey.house.gov</t>
+          <t>https://davis.house.gov</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://lindasanchez.house.gov/</t>
+          <t>https://higgins.house.gov</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://jeffries.house.gov</t>
+          <t>https://mfume.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://crow.house.gov/</t>
+          <t>https://posey.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://wilson.house.gov/</t>
+          <t>https://youngkim.house.gov</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://walorski.house.gov</t>
+          <t>https://gottheimer.house.gov</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://tonko.house.gov/</t>
+          <t>https://marymiller.house.gov</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://balderson.house.gov</t>
+          <t>https://schneider.house.gov</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://katko.house.gov/</t>
+          <t>https://rutherford.house.gov</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://boyle.house.gov/</t>
+          <t>https://chabot.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://malinowski.house.gov/</t>
+          <t>https://kelly.house.gov</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://sarbanes.house.gov/</t>
+          <t>https://frankel.house.gov</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://mcgovern.house.gov/</t>
+          <t>https://gaetz.house.gov</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://horsford.house.gov</t>
+          <t>https://fallon.house.gov</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://beyer.house.gov</t>
+          <t>https://burgess.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://dankildee.house.gov</t>
+          <t>https://lawson.house.gov</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://newman.house.gov</t>
+          <t>https://salazar.house.gov</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://kaptur.house.gov/</t>
+          <t>https://bacon.house.gov</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://cloud.house.gov</t>
+          <t>https://buddycarter.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://hayes.house.gov</t>
+          <t>https://halrogers.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://aderholt.house.gov/</t>
+          <t>https://fitzpatrick.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://jhb.house.gov/</t>
+          <t>https://jeffduncan.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://cawthorn.house.gov</t>
+          <t>https://mikelevin.house.gov</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://bishop.house.gov/</t>
+          <t>https://kahele.house.gov</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://sarajacobs.house.gov</t>
+          <t>https://pressley.house.gov</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://harris.house.gov/</t>
+          <t>https://barragan.house.gov</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://kind.house.gov/</t>
+          <t>https://crow.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://babin.house.gov</t>
+          <t>https://emmer.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://malliotakis.house.gov</t>
+          <t>https://spanberger.house.gov</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://blumenauer.house.gov/</t>
+          <t>https://austinscott.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://roybal-allard.house.gov</t>
+          <t>https://tlaib.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://welch.house.gov/</t>
+          <t>https://owens.house.gov</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://kilmer.house.gov</t>
+          <t>https://quigley.house.gov/</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://hartzler.house.gov/</t>
+          <t>https://cawthorn.house.gov</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://manning.house.gov</t>
+          <t>https://kathleenrice.house.gov</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://blakemoore.house.gov</t>
+          <t>https://spartz.house.gov</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://auchincloss.house.gov</t>
+          <t>https://axne.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://correa.house.gov</t>
+          <t>https://lamb.house.gov</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://beatty.house.gov</t>
+          <t>https://cuellar.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://mast.house.gov</t>
+          <t>https://hankjohnson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://troycarter.house.gov</t>
+          <t>https://fitzgerald.house.gov</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://lawson.house.gov</t>
+          <t>https://roybal-allard.house.gov</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://chabot.house.gov/</t>
+          <t>https://welch.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://dunn.house.gov</t>
+          <t>https://kuster.house.gov</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://mcclain.house.gov</t>
+          <t>https://krishnamoorthi.house.gov</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://napolitano.house.gov/</t>
+          <t>https://lamborn.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://cooper.house.gov/</t>
+          <t>https://davidscott.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://neal.house.gov/</t>
+          <t>https://langevin.house.gov</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://davis.house.gov</t>
+          <t>https://barrymoore.house.gov</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://kim.house.gov/</t>
+          <t>https://allred.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://raskin.house.gov</t>
+          <t>https://franklin.house.gov</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://vantaylor.house.gov/</t>
+          <t>https://veasey.house.gov</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://garbarino.house.gov</t>
+          <t>https://neal.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://kuster.house.gov</t>
+          <t>https://lee.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://carter.house.gov/</t>
+          <t>https://gallagher.house.gov</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://adriansmith.house.gov/</t>
+          <t>https://cicilline.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://kustoff.house.gov</t>
+          <t>https://mccollum.house.gov</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://donyoung.house.gov/</t>
+          <t>https://thompson.house.gov</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://buchanan.house.gov/</t>
+          <t>https://schrier.house.gov</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://lynch.house.gov/</t>
+          <t>https://donalds.house.gov</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://pascrell.house.gov/</t>
+          <t>https://garbarino.house.gov</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://fischbach.house.gov</t>
+          <t>https://nehls.house.gov</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://gallagher.house.gov</t>
+          <t>https://pingree.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://gonzales.house.gov</t>
+          <t>https://kilmer.house.gov</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://velazquez.house.gov</t>
+          <t>https://juliabrownley.house.gov</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://pelosi.house.gov/</t>
+          <t>https://lawrence.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://ritchietorres.house.gov</t>
+          <t>https://sannicolas.house.gov</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://trentkelly.house.gov/</t>
+          <t>https://babin.house.gov</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://mchenry.house.gov</t>
+          <t>https://westerman.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://fletcher.house.gov</t>
+          <t>https://estes.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://schneider.house.gov</t>
+          <t>https://billjohnson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://payne.house.gov</t>
+          <t>https://allen.house.gov</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://krishnamoorthi.house.gov</t>
+          <t>https://huizenga.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://boebert.house.gov</t>
+          <t>https://troycarter.house.gov</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://hudson.house.gov</t>
+          <t>https://joyce.house.gov</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://cline.house.gov</t>
+          <t>https://letlow.house.gov</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://norman.house.gov</t>
+          <t>https://fischbach.house.gov</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://sewell.house.gov/</t>
+          <t>https://bishop.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://palazzo.house.gov/</t>
+          <t>https://costa.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://hollingsworth.house.gov</t>
+          <t>https://adamsmith.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://billjohnson.house.gov/</t>
+          <t>https://stefanik.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://perry.house.gov/</t>
+          <t>https://chu.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://fernandez.house.gov</t>
+          <t>https://fulcher.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://mfume.house.gov/</t>
+          <t>https://norcross.house.gov</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://defazio.house.gov/</t>
+          <t>https://jackson.house.gov</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://robinkelly.house.gov/</t>
+          <t>https://foster.house.gov</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://amodei.house.gov</t>
+          <t>https://mooney.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://case.house.gov/</t>
+          <t>https://castro.house.gov</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://espaillat.house.gov</t>
+          <t>https://bentz.house.gov</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://burgess.house.gov/</t>
+          <t>https://gonzalez.house.gov</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://ruppersberger.house.gov</t>
+          <t>https://gomez.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://stevens.house.gov/</t>
+          <t>https://williams.house.gov</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://cleaver.house.gov</t>
+          <t>https://kevinbrady.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://valadao.house.gov</t>
+          <t>https://rouzer.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://pfluger.house.gov</t>
+          <t>https://wild.house.gov</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://ohalleran.house.gov</t>
+          <t>https://kaptur.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://austinscott.house.gov/</t>
+          <t>https://pappas.house.gov</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://larson.house.gov/</t>
+          <t>https://malliotakis.house.gov</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://lofgren.house.gov/</t>
+          <t>https://price.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://axne.house.gov/</t>
+          <t>https://rice.house.gov</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://anthonybrown.house.gov</t>
+          <t>https://fletcher.house.gov</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://laturner.house.gov</t>
+          <t>https://arrington.house.gov</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://susielee.house.gov</t>
+          <t>https://jones.house.gov</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://stansbury.house.gov/</t>
+          <t>https://gimenez.house.gov</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://wenstrup.house.gov</t>
+          <t>https://mckinley.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://cole.house.gov</t>
+          <t>https://wilson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://jayapal.house.gov</t>
+          <t>https://newman.house.gov</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://jasonsmith.house.gov</t>
+          <t>https://scalise.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://mikerogers.house.gov/</t>
+          <t>https://bice.house.gov</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://desjarlais.house.gov/</t>
+          <t>https://sylviagarcia.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://jackson.house.gov</t>
+          <t>https://luria.house.gov</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://radewagen.house.gov/</t>
+          <t>https://dunn.house.gov</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://fitzgerald.house.gov</t>
+          <t>https://perlmutter.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://sires.house.gov</t>
+          <t>https://laturner.house.gov</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://posey.house.gov/</t>
+          <t>https://walorski.house.gov</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://johnrose.house.gov/</t>
+          <t>https://kaygranger.house.gov</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://eshoo.house.gov/</t>
+          <t>https://pascrell.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://greene.house.gov</t>
+          <t>https://palmer.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://garretgraves.house.gov/</t>
+          <t>https://zeldin.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://jacobs.house.gov</t>
+          <t>https://rosendale.house.gov</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://clayhiggins.house.gov</t>
+          <t>https://newhouse.house.gov</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://mcnerney.house.gov/</t>
+          <t>https://vantaylor.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://khanna.house.gov</t>
+          <t>https://lieu.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://meeks.house.gov</t>
+          <t>https://phillips.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://grothman.house.gov</t>
+          <t>https://mann.house.gov</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://bergman.house.gov</t>
+          <t>https://mcnerney.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://bluntrochester.house.gov</t>
+          <t>https://murphy.house.gov</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://timryan.house.gov/</t>
+          <t>https://scottpeters.house.gov</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://hern.house.gov</t>
+          <t>https://wagner.house.gov</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://doggett.house.gov</t>
+          <t>https://degette.house.gov</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://chu.house.gov/</t>
+          <t>https://case.house.gov/</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://norton.house.gov/</t>
+          <t>https://mullin.house.gov</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://tlaib.house.gov/</t>
+          <t>https://hern.house.gov</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://danbishop.house.gov</t>
+          <t>https://reed.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://biggs.house.gov</t>
+          <t>https://ferguson.house.gov</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://emmer.house.gov/</t>
+          <t>https://comer.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://schiff.house.gov/</t>
+          <t>https://meijer.house.gov</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://lee.house.gov/</t>
+          <t>https://lynch.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://kirkpatrick.house.gov/</t>
+          <t>https://roy.house.gov</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://marymiller.house.gov</t>
+          <t>https://mast.house.gov</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://lieu.house.gov/</t>
+          <t>https://palazzo.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://cartwright.house.gov</t>
+          <t>https://robinkelly.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://hagedorn.house.gov/</t>
+          <t>https://jordan.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://costa.house.gov/</t>
+          <t>https://mikegarcia.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://latta.house.gov/</t>
+          <t>https://adriansmith.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://stewart.house.gov</t>
+          <t>https://upton.house.gov</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://vandrew.house.gov</t>
+          <t>https://harshbarger.house.gov</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://fleischmann.house.gov/</t>
+          <t>https://cammack.house.gov</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://speier.house.gov/</t>
+          <t>https://hartzler.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://vanduyne.house.gov</t>
+          <t>https://pocan.house.gov</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://loudermilk.house.gov</t>
+          <t>https://valadao.house.gov</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://ebjohnson.house.gov</t>
+          <t>https://meuser.house.gov</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://luetkemeyer.house.gov/</t>
+          <t>https://hayes.house.gov</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://golden.house.gov</t>
+          <t>https://escobar.house.gov</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://hoyer.house.gov/</t>
+          <t>https://grijalva.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://algreen.house.gov</t>
+          <t>https://wittman.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://williams.house.gov</t>
+          <t>https://danbishop.house.gov</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://lahood.house.gov/</t>
+          <t>https://anthonybrown.house.gov</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://stauber.house.gov</t>
+          <t>https://perry.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://halrogers.house.gov/</t>
+          <t>https://carbajal.house.gov</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://mrvan.house.gov</t>
+          <t>https://boebert.house.gov</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://timmons.house.gov/</t>
+          <t>https://jhb.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://omar.house.gov/</t>
+          <t>https://neguse.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://adams.house.gov</t>
+          <t>https://simpson.house.gov</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://wittman.house.gov/</t>
+          <t>https://wenstrup.house.gov</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://titus.house.gov/</t>
+          <t>https://gohmert.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://debbiedingell.house.gov/</t>
+          <t>https://dankildee.house.gov</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://price.house.gov/</t>
+          <t>https://schrader.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://allen.house.gov</t>
+          <t>https://ross.house.gov</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://bera.house.gov</t>
+          <t>https://hill.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://mccollum.house.gov</t>
+          <t>https://issa.house.gov</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://estes.house.gov/</t>
+          <t>https://waters.house.gov</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://stanton.house.gov/</t>
+          <t>https://bluntrochester.house.gov</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://huizenga.house.gov/</t>
+          <t>https://rubengallego.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://matsui.house.gov</t>
+          <t>https://nunes.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://nehls.house.gov</t>
+          <t>https://houlahan.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://mckinley.house.gov/</t>
+          <t>https://mikerogers.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://markgreen.house.gov/</t>
+          <t>https://delbene.house.gov</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://sessions.house.gov</t>
+          <t>https://donyoung.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://kahele.house.gov</t>
+          <t>https://golden.house.gov</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://curtis.house.gov/</t>
+          <t>https://amodei.house.gov</t>
         </is>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://kinzinger.house.gov/</t>
+          <t>https://delauro.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://cicilline.house.gov/</t>
+          <t>https://panetta.house.gov</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://plaskett.house.gov/</t>
+          <t>https://crist.house.gov</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://lamborn.house.gov/</t>
+          <t>https://ellzey.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://mace.house.gov</t>
+          <t>https://fernandez.house.gov</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://norcross.house.gov</t>
+          <t>https://vargas.house.gov</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://jeffduncan.house.gov/</t>
+          <t>https://cardenas.house.gov</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://meijer.house.gov</t>
+          <t>https://velazquez.house.gov</t>
         </is>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://miller.house.gov/</t>
+          <t>https://mceachin.house.gov</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://murphy.house.gov</t>
+          <t>https://trone.house.gov</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://bucshon.house.gov/</t>
+          <t>https://beyer.house.gov</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://foster.house.gov</t>
+          <t>https://keller.house.gov</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://gonzalez.house.gov</t>
+          <t>https://susielee.house.gov</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://doyle.house.gov</t>
+          <t>https://matsui.house.gov</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://rodneydavis.house.gov</t>
+          <t>https://trahan.house.gov</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://gohmert.house.gov/</t>
+          <t>https://curtis.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://smucker.house.gov/</t>
+          <t>https://steel.house.gov</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://maloney.house.gov/</t>
+          <t>https://weber.house.gov</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://slotkin.house.gov/</t>
+          <t>https://stewart.house.gov</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://anthonygonzalez.house.gov</t>
+          <t>https://ruiz.house.gov</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://hill.house.gov/</t>
+          <t>https://armstrong.house.gov</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://pence.house.gov/</t>
+          <t>https://gonzalez-colon.house.gov</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://hankjohnson.house.gov/</t>
+          <t>https://markgreen.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://clarke.house.gov/</t>
+          <t>https://pelosi.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://salazar.house.gov</t>
+          <t>https://gibbs.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://mikejohnson.house.gov</t>
+          <t>https://johnjoyce.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://guest.house.gov</t>
+          <t>https://eshoo.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://panetta.house.gov</t>
+          <t>https://tonko.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://walberg.house.gov/</t>
+          <t>https://crawford.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://cardenas.house.gov</t>
+          <t>https://katko.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://crawford.house.gov/</t>
+          <t>https://mcgovern.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://herrell.house.gov</t>
+          <t>https://sherman.house.gov</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://armstrong.house.gov</t>
+          <t>https://evans.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://mullin.house.gov</t>
+          <t>https://bass.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://bice.house.gov</t>
+          <t>https://stauber.house.gov</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://soto.house.gov</t>
+          <t>https://johnrose.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://wexton.house.gov/</t>
+          <t>https://underwood.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://mooney.house.gov/</t>
+          <t>https://cartwright.house.gov</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://steube.house.gov/</t>
+          <t>https://payne.house.gov</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://bentz.house.gov</t>
+          <t>https://defazio.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://joewilson.house.gov/</t>
+          <t>https://pfluger.house.gov</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://kelly.house.gov</t>
+          <t>https://jasonsmith.house.gov</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://pressley.house.gov</t>
+          <t>https://raskin.house.gov</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://scottpeters.house.gov</t>
+          <t>https://morgangriffith.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://gimenez.house.gov</t>
+          <t>https://guthrie.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://ocasio-cortez.house.gov/</t>
+          <t>https://clyde.house.gov</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://ross.house.gov</t>
+          <t>https://dustyjohnson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://obernolte.house.gov</t>
+          <t>https://bergman.house.gov</t>
         </is>
       </c>
     </row>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://allred.house.gov/</t>
+          <t>https://cleaver.house.gov</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://phillips.house.gov/</t>
+          <t>https://womack.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://newhouse.house.gov</t>
+          <t>https://schweikert.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://brooks.house.gov/</t>
+          <t>https://tenney.house.gov/</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://courtney.house.gov/</t>
+          <t>https://clyburn.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://ellzey.house.gov/</t>
+          <t>https://garretgraves.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://harder.house.gov/</t>
+          <t>https://biggs.house.gov</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://fortenberry.house.gov/</t>
+          <t>https://mcbath.house.gov</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://wild.house.gov</t>
+          <t>https://kustoff.house.gov</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://schweikert.house.gov/</t>
+          <t>https://steube.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://rutherford.house.gov</t>
+          <t>https://loudermilk.house.gov</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://nunes.house.gov/</t>
+          <t>https://aderholt.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://barragan.house.gov</t>
+          <t>https://cooper.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://chuygarcia.house.gov/</t>
+          <t>https://mariodiazbalart.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://budd.house.gov</t>
+          <t>https://norman.house.gov</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://johnjoyce.house.gov/</t>
+          <t>https://bush.house.gov</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://sylviagarcia.house.gov/</t>
+          <t>https://ocasio-cortez.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://morelle.house.gov</t>
+          <t>https://bobbyscott.house.gov</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://castor.house.gov/</t>
+          <t>https://titus.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://escobar.house.gov</t>
+          <t>https://strickland.house.gov</t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://gottheimer.house.gov</t>
+          <t>https://good.house.gov</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://scanlon.house.gov/</t>
+          <t>https://garamendi.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://garamendi.house.gov/</t>
+          <t>https://schiff.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://bonamici.house.gov</t>
+          <t>https://barr.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://gosar.house.gov/</t>
+          <t>https://schakowsky.house.gov</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://clyde.house.gov</t>
+          <t>https://walberg.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://mikelevin.house.gov</t>
+          <t>https://tiffany.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://trahan.house.gov</t>
+          <t>https://khanna.house.gov</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://schrier.house.gov</t>
+          <t>https://blakemoore.house.gov</t>
         </is>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://connolly.house.gov/</t>
+          <t>https://clayhiggins.house.gov</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://meuser.house.gov</t>
+          <t>https://craig.house.gov</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://arrington.house.gov</t>
+          <t>https://pallone.house.gov</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://chrissmith.house.gov/</t>
+          <t>https://wassermanschultz.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://benniethompson.house.gov/</t>
+          <t>https://smucker.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://houlahan.house.gov/</t>
+          <t>https://davids.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://steil.house.gov</t>
+          <t>https://rush.house.gov</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://teddeutch.house.gov/</t>
+          <t>https://casten.house.gov</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://trone.house.gov</t>
+          <t>https://budd.house.gov</t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://youngkim.house.gov</t>
+          <t>https://dean.house.gov</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://fitzpatrick.house.gov/</t>
+          <t>https://swalwell.house.gov</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://higgins.house.gov</t>
+          <t>https://manning.house.gov</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://sablan.house.gov/</t>
+          <t>https://kevinmccarthy.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://tenney.house.gov/</t>
+          <t>https://norton.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://moolenaar.house.gov/</t>
+          <t>https://gregmurphy.house.gov</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://clyburn.house.gov/</t>
+          <t>https://mcclain.house.gov</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://mikegarcia.house.gov/</t>
+          <t>https://scanlon.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://pingree.house.gov/</t>
+          <t>https://teddeutch.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://cuellar.house.gov/</t>
+          <t>https://stanton.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://good.house.gov</t>
+          <t>https://suozzi.house.gov</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://vargas.house.gov</t>
+          <t>https://clarke.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://rubengallego.house.gov/</t>
+          <t>https://chrissmith.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://rush.house.gov</t>
+          <t>https://bustos.house.gov</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://lamalfa.house.gov</t>
+          <t>https://sarbanes.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://bustos.house.gov</t>
+          <t>https://joewilson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://hice.house.gov/</t>
+          <t>https://mrvan.house.gov</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://keating.house.gov/</t>
+          <t>https://timryan.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://waters.house.gov</t>
+          <t>https://mikethompson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://comer.house.gov/</t>
+          <t>https://slotkin.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://takano.house.gov</t>
+          <t>https://carson.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://mariodiazbalart.house.gov/</t>
+          <t>https://millermeeks.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://millermeeks.house.gov/</t>
+          <t>https://bucshon.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://guthrie.house.gov/</t>
+          <t>https://desjarlais.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://kaygranger.house.gov</t>
+          <t>https://mikejohnson.house.gov</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://palmer.house.gov/</t>
+          <t>https://reschenthaler.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://owens.house.gov</t>
+          <t>https://crenshaw.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://castro.house.gov</t>
+          <t>https://luetkemeyer.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://spartz.house.gov</t>
+          <t>https://malinowski.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://letlow.house.gov</t>
+          <t>https://castor.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://calvert.house.gov/</t>
+          <t>https://cline.house.gov</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://tiffany.house.gov/</t>
+          <t>https://stevens.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://mceachin.house.gov</t>
+          <t>https://hoyer.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://keller.house.gov</t>
+          <t>https://carl.house.gov</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://larsen.house.gov</t>
+          <t>https://obernolte.house.gov</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://seanmaloney.house.gov</t>
+          <t>https://meng.house.gov</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://feenstra.house.gov</t>
+          <t>https://sessions.house.gov</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://wassermanschultz.house.gov/</t>
+          <t>https://buchanan.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://bost.house.gov/</t>
+          <t>https://graves.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://lamb.house.gov</t>
+          <t>https://seanmaloney.house.gov</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://delauro.house.gov/</t>
+          <t>https://doggett.house.gov</t>
         </is>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://lucas.house.gov</t>
+          <t>https://hollingsworth.house.gov</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://kevinbrady.house.gov/</t>
+          <t>https://meeks.house.gov</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://webster.house.gov/</t>
+          <t>https://courtney.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://juliabrownley.house.gov</t>
+          <t>https://moulton.house.gov/</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://torres.house.gov/</t>
+          <t>https://ohalleran.house.gov</t>
         </is>
       </c>
     </row>
